--- a/Python3Code/Chapter2/results/describe_run_walk_excel.xlsx
+++ b/Python3Code/Chapter2/results/describe_run_walk_excel.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Documents\Uni\Master AI\Machine Learning for the Quantified Self\ML4QS_group25\Python3Code\Chapter2\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB3C748-282D-443D-8299-92B3BAB98FF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01E7514-EDAB-4E90-9E1F-E9357B32F2C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{09D8DB7E-7625-417D-A35E-6CD5374BD5C0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{09D8DB7E-7625-417D-A35E-6CD5374BD5C0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Walking" sheetId="1" r:id="rId1"/>
-    <sheet name="Running" sheetId="2" r:id="rId2"/>
-    <sheet name="Merged" sheetId="3" r:id="rId3"/>
+    <sheet name="Walking_250" sheetId="1" r:id="rId1"/>
+    <sheet name="Running_250" sheetId="2" r:id="rId2"/>
+    <sheet name="Walking_6000" sheetId="4" r:id="rId3"/>
+    <sheet name="Running_6000" sheetId="5" r:id="rId4"/>
+    <sheet name="Merged" sheetId="3" r:id="rId5"/>
+    <sheet name="Merged_new" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="34">
   <si>
     <t>count</t>
   </si>
@@ -138,16 +141,13 @@
   <si>
     <t>Std.</t>
   </si>
-  <si>
-    <t>nan</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -174,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -234,31 +234,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1874,11 +1886,1311 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D54A92-8F92-4FDF-9997-A93DDFF369E4}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>-7.7343884757992906E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.466649768885885</v>
+      </c>
+      <c r="E2">
+        <v>-0.96450660084095496</v>
+      </c>
+      <c r="F2">
+        <v>-0.41228614127679297</v>
+      </c>
+      <c r="G2">
+        <v>-9.7040755674762502E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.20196945075123099</v>
+      </c>
+      <c r="I2">
+        <v>1.12795563112486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>2.2827753992286399</v>
+      </c>
+      <c r="D3">
+        <v>0.468754849740391</v>
+      </c>
+      <c r="E3">
+        <v>1.5082071732086599</v>
+      </c>
+      <c r="F3">
+        <v>1.9578194923815699</v>
+      </c>
+      <c r="G3">
+        <v>2.1204679335857901</v>
+      </c>
+      <c r="H3">
+        <v>2.5995488731337399</v>
+      </c>
+      <c r="I3">
+        <v>3.3958454506409002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>9.1827979899345493</v>
+      </c>
+      <c r="D4">
+        <v>0.174591738063893</v>
+      </c>
+      <c r="E4">
+        <v>8.3945270776388892</v>
+      </c>
+      <c r="F4">
+        <v>9.0878981987142797</v>
+      </c>
+      <c r="G4">
+        <v>9.2247347441565992</v>
+      </c>
+      <c r="H4">
+        <v>9.2976558342588298</v>
+      </c>
+      <c r="I4">
+        <v>9.3894327777286506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>2.5866123594319099E-3</v>
+      </c>
+      <c r="D5">
+        <v>2.7509342510871799E-2</v>
+      </c>
+      <c r="E5">
+        <v>-2.67493818907731E-2</v>
+      </c>
+      <c r="F5">
+        <v>-6.9234345812846602E-3</v>
+      </c>
+      <c r="G5">
+        <v>-1.4683163221653401E-3</v>
+      </c>
+      <c r="H5">
+        <v>7.7101566719193996E-3</v>
+      </c>
+      <c r="I5">
+        <v>0.18125226872146999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>4.6336658769218003E-3</v>
+      </c>
+      <c r="D6">
+        <v>2.57023713318556E-2</v>
+      </c>
+      <c r="E6">
+        <v>-2.1189870088090298E-2</v>
+      </c>
+      <c r="F6">
+        <v>-6.1089773883652504E-3</v>
+      </c>
+      <c r="G6">
+        <v>3.4843753529134598E-3</v>
+      </c>
+      <c r="H6">
+        <v>7.6533269291960198E-3</v>
+      </c>
+      <c r="I6">
+        <v>0.16728189134108801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>5.4610421563197403E-3</v>
+      </c>
+      <c r="D7">
+        <v>3.2917845425101303E-2</v>
+      </c>
+      <c r="E7">
+        <v>-3.4293160422500399E-2</v>
+      </c>
+      <c r="F7">
+        <v>-1.03665188621344E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.2482015389779599E-3</v>
+      </c>
+      <c r="H7">
+        <v>1.4469591599578601E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.20813213945588199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>-0.19615433363212001</v>
+      </c>
+      <c r="D8">
+        <v>0.42819584682642098</v>
+      </c>
+      <c r="E8">
+        <v>-2.64462039966444</v>
+      </c>
+      <c r="F8">
+        <v>-0.115561944255871</v>
+      </c>
+      <c r="G8">
+        <v>-8.0293513632207394E-2</v>
+      </c>
+      <c r="H8">
+        <v>-5.2327945610270599E-2</v>
+      </c>
+      <c r="I8">
+        <v>3.80599236886908E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>-2.6598040737218699E-2</v>
+      </c>
+      <c r="D9">
+        <v>8.6099795983417604E-2</v>
+      </c>
+      <c r="E9">
+        <v>-0.48508373327142801</v>
+      </c>
+      <c r="F9">
+        <v>-5.5484064092216297E-2</v>
+      </c>
+      <c r="G9">
+        <v>-2.34639128046947E-2</v>
+      </c>
+      <c r="H9">
+        <v>3.56988961352914E-3</v>
+      </c>
+      <c r="I9">
+        <v>0.26360209538020601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>-0.308121202739852</v>
+      </c>
+      <c r="D10">
+        <v>0.14410842842975299</v>
+      </c>
+      <c r="E10">
+        <v>-1.2724916595142799</v>
+      </c>
+      <c r="F10">
+        <v>-0.32330229832659102</v>
+      </c>
+      <c r="G10">
+        <v>-0.29319557350026798</v>
+      </c>
+      <c r="H10">
+        <v>-0.26225166122427701</v>
+      </c>
+      <c r="I10">
+        <v>-0.15076058695456501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>52.255127204013299</v>
+      </c>
+      <c r="D11" s="12">
+        <v>9.1715450273098601E-6</v>
+      </c>
+      <c r="E11">
+        <v>52.255090103999997</v>
+      </c>
+      <c r="F11">
+        <v>52.255122810833299</v>
+      </c>
+      <c r="G11">
+        <v>52.255126817499999</v>
+      </c>
+      <c r="H11">
+        <v>52.255131080416596</v>
+      </c>
+      <c r="I11">
+        <v>52.255144731666597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>4.5767568185140002</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1.27971565768215E-5</v>
+      </c>
+      <c r="E12">
+        <v>4.5767310180000003</v>
+      </c>
+      <c r="F12">
+        <v>4.5767518325833301</v>
+      </c>
+      <c r="G12">
+        <v>4.5767582929166597</v>
+      </c>
+      <c r="H12">
+        <v>4.5767617351666603</v>
+      </c>
+      <c r="I12">
+        <v>4.5768002026666599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>3.4276077603574602</v>
+      </c>
+      <c r="D13">
+        <v>0.53678698333175501</v>
+      </c>
+      <c r="E13">
+        <v>2.1823183575399998</v>
+      </c>
+      <c r="F13">
+        <v>3.1400597981249998</v>
+      </c>
+      <c r="G13">
+        <v>3.32027471991666</v>
+      </c>
+      <c r="H13">
+        <v>3.60772117529166</v>
+      </c>
+      <c r="I13">
+        <v>5.3765271243333297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>1.18744641338E-2</v>
+      </c>
+      <c r="D14">
+        <v>7.7449592885429699E-2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.54658150074</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>5.77153208416666</v>
+      </c>
+      <c r="D15">
+        <v>33.027970807376597</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>226.38214112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>4.4285519981199997</v>
+      </c>
+      <c r="D16">
+        <v>0.95806305157145999</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>8.4275999059999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>4.0494564104693298</v>
+      </c>
+      <c r="D17">
+        <v>4.1216093892940497</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>26.4339065568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>51</v>
+      </c>
+      <c r="C18">
+        <v>-5.1143501984869397</v>
+      </c>
+      <c r="D18">
+        <v>2.31559503429976</v>
+      </c>
+      <c r="E18">
+        <v>-11.8076997295266</v>
+      </c>
+      <c r="F18">
+        <v>-6.1352498514383296</v>
+      </c>
+      <c r="G18">
+        <v>-4.9905998730433296</v>
+      </c>
+      <c r="H18">
+        <v>-3.6230499098911002</v>
+      </c>
+      <c r="I18">
+        <v>-1.3847999651716301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <v>-11.940240558868201</v>
+      </c>
+      <c r="D19">
+        <v>2.5238019483571801</v>
+      </c>
+      <c r="E19">
+        <v>-17.900799617933298</v>
+      </c>
+      <c r="F19">
+        <v>-13.540149710962501</v>
+      </c>
+      <c r="G19">
+        <v>-11.3276997547883</v>
+      </c>
+      <c r="H19">
+        <v>-10.238113917860399</v>
+      </c>
+      <c r="I19">
+        <v>-7.4334998399316596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>51</v>
+      </c>
+      <c r="C20">
+        <v>7.6416120248686203</v>
+      </c>
+      <c r="D20">
+        <v>1.2245552094249901</v>
+      </c>
+      <c r="E20">
+        <v>5.1197998821599997</v>
+      </c>
+      <c r="F20">
+        <v>6.8044998482958299</v>
+      </c>
+      <c r="G20">
+        <v>7.6217998197733197</v>
+      </c>
+      <c r="H20">
+        <v>8.2177998213024903</v>
+      </c>
+      <c r="I20">
+        <v>11.132599743861601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>999.60657791785195</v>
+      </c>
+      <c r="D21">
+        <v>1.87708228488918E-2</v>
+      </c>
+      <c r="E21">
+        <v>999.55672200499998</v>
+      </c>
+      <c r="F21">
+        <v>999.59413452499905</v>
+      </c>
+      <c r="G21">
+        <v>999.60621134666599</v>
+      </c>
+      <c r="H21">
+        <v>999.61978657791599</v>
+      </c>
+      <c r="I21">
+        <v>999.64282226499995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE7A1C6-D8B9-47FA-9E2D-C2EA74C44D7E}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>-1.0273551866075601</v>
+      </c>
+      <c r="D2">
+        <v>0.55062448022278199</v>
+      </c>
+      <c r="E2">
+        <v>-2.30841212151519</v>
+      </c>
+      <c r="F2">
+        <v>-1.35753625674031</v>
+      </c>
+      <c r="G2">
+        <v>-0.97909877787102695</v>
+      </c>
+      <c r="H2">
+        <v>-0.75898750892038802</v>
+      </c>
+      <c r="I2">
+        <v>0.30063392500610903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>4.4422003181155896</v>
+      </c>
+      <c r="D3">
+        <v>0.54016355480443201</v>
+      </c>
+      <c r="E3">
+        <v>3.0852768877657999</v>
+      </c>
+      <c r="F3">
+        <v>3.9990634393819802</v>
+      </c>
+      <c r="G3">
+        <v>4.47009669695474</v>
+      </c>
+      <c r="H3">
+        <v>4.7808276813857598</v>
+      </c>
+      <c r="I3">
+        <v>5.6484941179044696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>8.7107267038203702</v>
+      </c>
+      <c r="D4">
+        <v>0.262849079077841</v>
+      </c>
+      <c r="E4">
+        <v>7.98621739086233</v>
+      </c>
+      <c r="F4">
+        <v>8.5288937034258208</v>
+      </c>
+      <c r="G4">
+        <v>8.7133845540593295</v>
+      </c>
+      <c r="H4">
+        <v>8.8730303996263995</v>
+      </c>
+      <c r="I4">
+        <v>9.207174203548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>-5.3769827822065401E-2</v>
+      </c>
+      <c r="D5">
+        <v>5.3755086953914802E-2</v>
+      </c>
+      <c r="E5">
+        <v>-0.16486866077083201</v>
+      </c>
+      <c r="F5">
+        <v>-8.7646011356994194E-2</v>
+      </c>
+      <c r="G5">
+        <v>-5.06091678406781E-2</v>
+      </c>
+      <c r="H5">
+        <v>-2.4721920780498501E-2</v>
+      </c>
+      <c r="I5">
+        <v>9.8690164709129904E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>0.122428222001012</v>
+      </c>
+      <c r="D6">
+        <v>0.117864659874859</v>
+      </c>
+      <c r="E6">
+        <v>-6.4530387131475006E-2</v>
+      </c>
+      <c r="F6">
+        <v>5.9249143548419599E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.103039935248457</v>
+      </c>
+      <c r="H6">
+        <v>0.18045671983370701</v>
+      </c>
+      <c r="I6">
+        <v>0.714273129837253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>-0.108699397200593</v>
+      </c>
+      <c r="D7">
+        <v>7.1784430506682498E-2</v>
+      </c>
+      <c r="E7">
+        <v>-0.25811113139321601</v>
+      </c>
+      <c r="F7">
+        <v>-0.15401205878638399</v>
+      </c>
+      <c r="G7">
+        <v>-0.103422337560162</v>
+      </c>
+      <c r="H7">
+        <v>-5.5266403153329299E-2</v>
+      </c>
+      <c r="I7">
+        <v>2.8352088003349998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>-1.1351722181557899</v>
+      </c>
+      <c r="D8">
+        <v>0.29116004530370099</v>
+      </c>
+      <c r="E8">
+        <v>-1.7322099750525899</v>
+      </c>
+      <c r="F8">
+        <v>-1.36014652981277</v>
+      </c>
+      <c r="G8">
+        <v>-1.1545163009135799</v>
+      </c>
+      <c r="H8">
+        <v>-0.93263419191822206</v>
+      </c>
+      <c r="I8">
+        <v>-0.35809159424852299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>-0.28717148290393801</v>
+      </c>
+      <c r="D9">
+        <v>0.19207362048037899</v>
+      </c>
+      <c r="E9">
+        <v>-0.79040179770183205</v>
+      </c>
+      <c r="F9">
+        <v>-0.39476557370554599</v>
+      </c>
+      <c r="G9">
+        <v>-0.30276853283279997</v>
+      </c>
+      <c r="H9">
+        <v>-0.19625842392915799</v>
+      </c>
+      <c r="I9">
+        <v>0.17216419815981901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>0.37629602835862203</v>
+      </c>
+      <c r="D10">
+        <v>0.31736920561856502</v>
+      </c>
+      <c r="E10">
+        <v>-0.19097808202685801</v>
+      </c>
+      <c r="F10">
+        <v>0.19008812069662401</v>
+      </c>
+      <c r="G10">
+        <v>0.34760241430181599</v>
+      </c>
+      <c r="H10">
+        <v>0.56181407035006004</v>
+      </c>
+      <c r="I10">
+        <v>1.53938797228297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>52.2551256721746</v>
+      </c>
+      <c r="D11" s="12">
+        <v>8.0184081314628401E-6</v>
+      </c>
+      <c r="E11">
+        <v>52.255111178333301</v>
+      </c>
+      <c r="F11">
+        <v>52.255120716666603</v>
+      </c>
+      <c r="G11">
+        <v>52.255126073333301</v>
+      </c>
+      <c r="H11">
+        <v>52.255131141785697</v>
+      </c>
+      <c r="I11">
+        <v>52.255152293999899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>4.5767785732635797</v>
+      </c>
+      <c r="D12" s="12">
+        <v>9.3227858799335794E-6</v>
+      </c>
+      <c r="E12">
+        <v>4.5767655137999999</v>
+      </c>
+      <c r="F12">
+        <v>4.57676949291666</v>
+      </c>
+      <c r="G12">
+        <v>4.5767771023333301</v>
+      </c>
+      <c r="H12">
+        <v>4.5767863178333297</v>
+      </c>
+      <c r="I12">
+        <v>4.5767945306666604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>51</v>
+      </c>
+      <c r="C13">
+        <v>5.0650771005706403</v>
+      </c>
+      <c r="D13">
+        <v>1.5770604559857699</v>
+      </c>
+      <c r="E13">
+        <v>-2.3541681720400001</v>
+      </c>
+      <c r="F13">
+        <v>4.7042350985833297</v>
+      </c>
+      <c r="G13">
+        <v>4.8747279379999897</v>
+      </c>
+      <c r="H13">
+        <v>5.2921456094166599</v>
+      </c>
+      <c r="I13">
+        <v>11.9388388121428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <v>1.1104533301120399E-2</v>
+      </c>
+      <c r="D14">
+        <v>5.5970891454344501E-2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.31894523755714199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>6.1874219668347301</v>
+      </c>
+      <c r="D15">
+        <v>30.934090355975499</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>159.992985328571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>51</v>
+      </c>
+      <c r="C16">
+        <v>4.3426948655929003</v>
+      </c>
+      <c r="D16">
+        <v>1.34119424625439</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>11.4285714285714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>51</v>
+      </c>
+      <c r="C17">
+        <v>4.6587966687551798</v>
+      </c>
+      <c r="D17">
+        <v>7.76630961145489</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>55.082053764800001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>51</v>
+      </c>
+      <c r="C18">
+        <v>-0.29086655953718599</v>
+      </c>
+      <c r="D18">
+        <v>2.74929770341621</v>
+      </c>
+      <c r="E18">
+        <v>-6.1993998637091998</v>
+      </c>
+      <c r="F18">
+        <v>-2.1024499524472802</v>
+      </c>
+      <c r="G18">
+        <v>-0.15890000114649999</v>
+      </c>
+      <c r="H18">
+        <v>1.4757999617344799</v>
+      </c>
+      <c r="I18">
+        <v>7.1321998440347301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <v>-24.704669453790199</v>
+      </c>
+      <c r="D19">
+        <v>3.96967809532967</v>
+      </c>
+      <c r="E19">
+        <v>-31.213199291299901</v>
+      </c>
+      <c r="F19">
+        <v>-27.513899405958298</v>
+      </c>
+      <c r="G19">
+        <v>-25.122799422149999</v>
+      </c>
+      <c r="H19">
+        <v>-22.369149517124999</v>
+      </c>
+      <c r="I19">
+        <v>-11.186799762427601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>51</v>
+      </c>
+      <c r="C20">
+        <v>17.4699412207484</v>
+      </c>
+      <c r="D20">
+        <v>3.1891181330352598</v>
+      </c>
+      <c r="E20">
+        <v>1.8707216988673501</v>
+      </c>
+      <c r="F20">
+        <v>16.370299663584198</v>
+      </c>
+      <c r="G20">
+        <v>18.120099589235</v>
+      </c>
+      <c r="H20">
+        <v>19.180399580967499</v>
+      </c>
+      <c r="I20">
+        <v>23.270299469933299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>51</v>
+      </c>
+      <c r="C21">
+        <v>999.56281271873195</v>
+      </c>
+      <c r="D21">
+        <v>2.06616265557709E-2</v>
+      </c>
+      <c r="E21">
+        <v>999.51253661666601</v>
+      </c>
+      <c r="F21">
+        <v>999.55330200583296</v>
+      </c>
+      <c r="G21">
+        <v>999.56531982000001</v>
+      </c>
+      <c r="H21">
+        <v>999.577484130833</v>
+      </c>
+      <c r="I21">
+        <v>999.60811360833304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE014CF-F105-4FF6-98EB-F661A64E24E5}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1889,47 +3201,47 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="11"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
@@ -1937,38 +3249,38 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>1201</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="C3" s="6">
+        <v>100</v>
+      </c>
+      <c r="D3" s="6">
         <f>B3/B3*100</f>
         <v>100</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="E3" s="13">
+        <v>-7.7343884757992906E-2</v>
+      </c>
+      <c r="F3" s="7">
         <v>-7.4811513623453604E-2</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="G3" s="13">
+        <v>0.466649768885885</v>
+      </c>
+      <c r="H3" s="7">
         <v>0.76046072468444204</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="I3" s="13">
+        <v>-0.96450660084095496</v>
+      </c>
+      <c r="J3" s="7">
         <v>-2.2796177749919901</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="8">
+      <c r="K3" s="13">
+        <v>1.12795563112486</v>
+      </c>
+      <c r="L3" s="7">
         <v>2.8741257896480001</v>
       </c>
       <c r="M3" s="2"/>
@@ -1978,38 +3290,38 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>1201</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="6">
+        <v>100</v>
+      </c>
+      <c r="D4" s="6">
         <f>B4/B3*100</f>
         <v>100</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="E4" s="13">
+        <v>2.2827753992286399</v>
+      </c>
+      <c r="F4" s="7">
         <v>2.2942656098466698</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="G4" s="13">
+        <v>0.468754849740391</v>
+      </c>
+      <c r="H4" s="7">
         <v>0.801477375157432</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="8">
+      <c r="I4" s="13">
+        <v>1.5082071732086599</v>
+      </c>
+      <c r="J4" s="7">
         <v>0.106708037396719</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="8">
+      <c r="K4" s="13">
+        <v>3.3958454506409002</v>
+      </c>
+      <c r="L4" s="7">
         <v>4.657132648448</v>
       </c>
       <c r="M4" s="2"/>
@@ -2019,38 +3331,38 @@
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>1201</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="6">
+        <v>100</v>
+      </c>
+      <c r="D5" s="6">
         <f>B5/B3*100</f>
         <v>100</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="E5" s="13">
+        <v>9.1827979899345493</v>
+      </c>
+      <c r="F5" s="7">
         <v>9.1978695718612808</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="G5" s="13">
+        <v>0.174591738063893</v>
+      </c>
+      <c r="H5" s="7">
         <v>0.90035423554310401</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="8">
+      <c r="I5" s="13">
+        <v>8.3945270776388892</v>
+      </c>
+      <c r="J5" s="7">
         <v>7.1116856879999997</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="8">
+      <c r="K5" s="13">
+        <v>9.3894327777286506</v>
+      </c>
+      <c r="L5" s="7">
         <v>11.511424271199999</v>
       </c>
       <c r="M5" s="2"/>
@@ -2060,38 +3372,38 @@
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>1200</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C6" s="6">
+        <v>100</v>
+      </c>
+      <c r="D6" s="7">
         <f>B6/B3*100</f>
         <v>99.916736053288929</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="E6" s="13">
+        <v>2.5866123594319099E-3</v>
+      </c>
+      <c r="F6" s="7">
         <v>-8.3418843256440804E-4</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="G6" s="13">
+        <v>2.7509342510871799E-2</v>
+      </c>
+      <c r="H6" s="7">
         <v>0.16816086114158299</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="I6" s="13">
+        <v>-2.67493818907731E-2</v>
+      </c>
+      <c r="J6" s="7">
         <v>-0.69996238484152895</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="8">
+      <c r="K6" s="13">
+        <v>0.18125226872146999</v>
+      </c>
+      <c r="L6" s="7">
         <v>0.51741874690484002</v>
       </c>
       <c r="M6" s="2"/>
@@ -2101,38 +3413,38 @@
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>1200</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="C7" s="6">
+        <v>100</v>
+      </c>
+      <c r="D7" s="7">
         <f>B7/B3*100</f>
         <v>99.916736053288929</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="E7" s="13">
+        <v>4.6336658769218003E-3</v>
+      </c>
+      <c r="F7" s="7">
         <v>1.53027322586273E-3</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="G7" s="13">
+        <v>2.57023713318556E-2</v>
+      </c>
+      <c r="H7" s="7">
         <v>0.15389005355134699</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="I7" s="13">
+        <v>-2.1189870088090298E-2</v>
+      </c>
+      <c r="J7" s="7">
         <v>-0.63540553327895999</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="8">
+      <c r="K7" s="13">
+        <v>0.16728189134108801</v>
+      </c>
+      <c r="L7" s="7">
         <v>0.51370040907675596</v>
       </c>
       <c r="M7" s="2"/>
@@ -2142,95 +3454,95 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>1200</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="C8" s="6">
+        <v>100</v>
+      </c>
+      <c r="D8" s="7">
         <f>B8/B3*100</f>
         <v>99.916736053288929</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="E8" s="13">
+        <v>5.4610421563197403E-3</v>
+      </c>
+      <c r="F8" s="7">
         <v>1.57487814673367E-3</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="G8" s="13">
+        <v>3.2917845425101303E-2</v>
+      </c>
+      <c r="H8" s="7">
         <v>0.29053702967954498</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="8">
+      <c r="I8" s="13">
+        <v>-3.4293160422500399E-2</v>
+      </c>
+      <c r="J8" s="7">
         <v>-0.81585696089199999</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="8">
+      <c r="K8" s="13">
+        <v>0.20813213945588199</v>
+      </c>
+      <c r="L8" s="7">
         <v>0.93879237368879898</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>1204</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="C10" s="6">
+        <v>100</v>
+      </c>
+      <c r="D10" s="6">
         <f>B10/B10*100</f>
         <v>100</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="E10" s="13">
+        <v>-1.0273551866075601</v>
+      </c>
+      <c r="F10" s="7">
         <v>-1.0407921527469299</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="G10" s="13">
+        <v>0.55062448022278199</v>
+      </c>
+      <c r="H10" s="7">
         <v>2.8598204402641501</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="8">
+      <c r="I10" s="13">
+        <v>-2.30841212151519</v>
+      </c>
+      <c r="J10" s="7">
         <v>-7.95964207049599</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="8">
+      <c r="K10" s="13">
+        <v>0.30063392500610903</v>
+      </c>
+      <c r="L10" s="7">
         <v>5.3703009528879901</v>
       </c>
       <c r="M10" s="2"/>
@@ -2240,38 +3552,38 @@
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>1204</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C11" s="6">
+        <v>100</v>
+      </c>
+      <c r="D11" s="6">
         <f>B11/B10*100</f>
         <v>100</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="E11" s="13">
+        <v>4.4422003181155896</v>
+      </c>
+      <c r="F11" s="7">
         <v>4.4263161082706004</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="G11" s="13">
+        <v>0.54016355480443201</v>
+      </c>
+      <c r="H11" s="7">
         <v>2.0899051526477801</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="8">
+      <c r="I11" s="13">
+        <v>3.0852768877657999</v>
+      </c>
+      <c r="J11" s="7">
         <v>-1.02250858559311</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="8">
+      <c r="K11" s="13">
+        <v>5.6484941179044696</v>
+      </c>
+      <c r="L11" s="7">
         <v>9.2464403248719993</v>
       </c>
       <c r="M11" s="2"/>
@@ -2281,38 +3593,38 @@
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>1204</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="C12" s="6">
+        <v>100</v>
+      </c>
+      <c r="D12" s="6">
         <f>B12/B10*100</f>
         <v>100</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="E12" s="13">
+        <v>8.7107267038203702</v>
+      </c>
+      <c r="F12" s="7">
         <v>8.7024713098617106</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="G12" s="13">
+        <v>0.262849079077841</v>
+      </c>
+      <c r="H12" s="7">
         <v>1.87910814236615</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="8">
+      <c r="I12" s="13">
+        <v>7.98621739086233</v>
+      </c>
+      <c r="J12" s="7">
         <v>3.4311873462058302</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="8">
+      <c r="K12" s="13">
+        <v>9.207174203548</v>
+      </c>
+      <c r="L12" s="7">
         <v>13.852086410344</v>
       </c>
       <c r="M12" s="2"/>
@@ -2322,38 +3634,38 @@
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>1203</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="C13" s="6">
+        <v>100</v>
+      </c>
+      <c r="D13" s="7">
         <f>B13/B10*100</f>
         <v>99.916943521594675</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="8">
+      <c r="E13" s="13">
+        <v>-5.3769827822065401E-2</v>
+      </c>
+      <c r="F13" s="7">
         <v>-5.6252378282501701E-2</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="8">
+      <c r="G13" s="13">
+        <v>5.3755086953914802E-2</v>
+      </c>
+      <c r="H13" s="7">
         <v>0.81336207100962699</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="8">
+      <c r="I13" s="13">
+        <v>-0.16486866077083201</v>
+      </c>
+      <c r="J13" s="7">
         <v>-1.8743679127167201</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="8">
+      <c r="K13" s="13">
+        <v>9.8690164709129904E-2</v>
+      </c>
+      <c r="L13" s="7">
         <v>2.32117185062239</v>
       </c>
       <c r="M13" s="2"/>
@@ -2363,38 +3675,38 @@
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>1203</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="C14" s="6">
+        <v>100</v>
+      </c>
+      <c r="D14" s="7">
         <f>B14/B10*100</f>
         <v>99.916943521594675</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="E14" s="13">
+        <v>0.122428222001012</v>
+      </c>
+      <c r="F14" s="7">
         <v>0.112546019620249</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="G14" s="13">
+        <v>0.117864659874859</v>
+      </c>
+      <c r="H14" s="7">
         <v>1.4805644648609</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="8">
+      <c r="I14" s="13">
+        <v>-6.4530387131475006E-2</v>
+      </c>
+      <c r="J14" s="7">
         <v>-3.7410933198239902</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="8">
+      <c r="K14" s="13">
+        <v>0.714273129837253</v>
+      </c>
+      <c r="L14" s="7">
         <v>3.569820145584</v>
       </c>
       <c r="M14" s="2"/>
@@ -2404,38 +3716,38 @@
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>1203</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="C15" s="6">
+        <v>100</v>
+      </c>
+      <c r="D15" s="7">
         <f>B15/B10*100</f>
         <v>99.916943521594675</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="E15" s="13">
+        <v>-0.108699397200593</v>
+      </c>
+      <c r="F15" s="7">
         <v>-0.109489477492712</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="8">
+      <c r="G15" s="13">
+        <v>7.1784430506682498E-2</v>
+      </c>
+      <c r="H15" s="7">
         <v>1.00878561980918</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="8">
+      <c r="I15" s="13">
+        <v>-0.25811113139321601</v>
+      </c>
+      <c r="J15" s="7">
         <v>-3.0159101257679999</v>
       </c>
-      <c r="K15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="8">
+      <c r="K15" s="13">
+        <v>2.8352088003349998E-2</v>
+      </c>
+      <c r="L15" s="7">
         <v>2.3851306676844701</v>
       </c>
       <c r="M15" s="2"/>
@@ -2454,4 +3766,504 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0136BBB-F35D-4ABA-8742-07EC29569879}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="4"/>
+      <c r="B1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>100</v>
+      </c>
+      <c r="C3" s="4">
+        <v>100</v>
+      </c>
+      <c r="D3" s="13">
+        <v>-7.7343884757992906E-2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>-7.4811513623453604E-2</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.466649768885885</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.76046072468444204</v>
+      </c>
+      <c r="H3" s="13">
+        <v>-0.96450660084095496</v>
+      </c>
+      <c r="I3" s="7">
+        <v>-2.2796177749919901</v>
+      </c>
+      <c r="J3" s="13">
+        <v>1.12795563112486</v>
+      </c>
+      <c r="K3" s="7">
+        <v>2.8741257896480001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>100</v>
+      </c>
+      <c r="C4" s="4">
+        <v>100</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2.2827753992286399</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2.2942656098466698</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.468754849740391</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.801477375157432</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1.5082071732086599</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.106708037396719</v>
+      </c>
+      <c r="J4" s="13">
+        <v>3.3958454506409002</v>
+      </c>
+      <c r="K4" s="7">
+        <v>4.657132648448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>100</v>
+      </c>
+      <c r="C5" s="4">
+        <v>100</v>
+      </c>
+      <c r="D5" s="13">
+        <v>9.1827979899345493</v>
+      </c>
+      <c r="E5" s="7">
+        <v>9.1978695718612808</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.174591738063893</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.90035423554310401</v>
+      </c>
+      <c r="H5" s="13">
+        <v>8.3945270776388892</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7.1116856879999997</v>
+      </c>
+      <c r="J5" s="13">
+        <v>9.3894327777286506</v>
+      </c>
+      <c r="K5" s="7">
+        <v>11.511424271199999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>100</v>
+      </c>
+      <c r="C6" s="13">
+        <v>99.916736053288929</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2.5866123594319099E-3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>-8.3418843256440804E-4</v>
+      </c>
+      <c r="F6" s="13">
+        <v>2.7509342510871799E-2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.16816086114158299</v>
+      </c>
+      <c r="H6" s="13">
+        <v>-2.67493818907731E-2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>-0.69996238484152895</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.18125226872146999</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.51741874690484002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>100</v>
+      </c>
+      <c r="C7" s="13">
+        <v>99.916736053288929</v>
+      </c>
+      <c r="D7" s="13">
+        <v>4.6336658769218003E-3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.53027322586273E-3</v>
+      </c>
+      <c r="F7" s="13">
+        <v>2.57023713318556E-2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.15389005355134699</v>
+      </c>
+      <c r="H7" s="13">
+        <v>-2.1189870088090298E-2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>-0.63540553327895999</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.16728189134108801</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.51370040907675596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>100</v>
+      </c>
+      <c r="C8" s="13">
+        <v>99.916736053288929</v>
+      </c>
+      <c r="D8" s="13">
+        <v>5.4610421563197403E-3</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1.57487814673367E-3</v>
+      </c>
+      <c r="F8" s="13">
+        <v>3.2917845425101303E-2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.29053702967954498</v>
+      </c>
+      <c r="H8" s="13">
+        <v>-3.4293160422500399E-2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>-0.81585696089199999</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.20813213945588199</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.93879237368879898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4">
+        <v>100</v>
+      </c>
+      <c r="C10" s="4">
+        <v>100</v>
+      </c>
+      <c r="D10" s="13">
+        <v>-1.0273551866075601</v>
+      </c>
+      <c r="E10" s="7">
+        <v>-1.0407921527469299</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.55062448022278199</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2.8598204402641501</v>
+      </c>
+      <c r="H10" s="13">
+        <v>-2.30841212151519</v>
+      </c>
+      <c r="I10" s="7">
+        <v>-7.95964207049599</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.30063392500610903</v>
+      </c>
+      <c r="K10" s="7">
+        <v>5.3703009528879901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4">
+        <v>100</v>
+      </c>
+      <c r="C11" s="4">
+        <v>100</v>
+      </c>
+      <c r="D11" s="13">
+        <v>4.4422003181155896</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4.4263161082706004</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.54016355480443201</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2.0899051526477801</v>
+      </c>
+      <c r="H11" s="13">
+        <v>3.0852768877657999</v>
+      </c>
+      <c r="I11" s="7">
+        <v>-1.02250858559311</v>
+      </c>
+      <c r="J11" s="13">
+        <v>5.6484941179044696</v>
+      </c>
+      <c r="K11" s="7">
+        <v>9.2464403248719993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4">
+        <v>100</v>
+      </c>
+      <c r="C12" s="4">
+        <v>100</v>
+      </c>
+      <c r="D12" s="13">
+        <v>8.7107267038203702</v>
+      </c>
+      <c r="E12" s="7">
+        <v>8.7024713098617106</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.262849079077841</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1.87910814236615</v>
+      </c>
+      <c r="H12" s="13">
+        <v>7.98621739086233</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3.4311873462058302</v>
+      </c>
+      <c r="J12" s="13">
+        <v>9.207174203548</v>
+      </c>
+      <c r="K12" s="7">
+        <v>13.852086410344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4">
+        <v>100</v>
+      </c>
+      <c r="C13" s="13">
+        <v>99.916943521594675</v>
+      </c>
+      <c r="D13" s="13">
+        <v>-5.3769827822065401E-2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>-5.6252378282501701E-2</v>
+      </c>
+      <c r="F13" s="13">
+        <v>5.3755086953914802E-2</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.81336207100962699</v>
+      </c>
+      <c r="H13" s="13">
+        <v>-0.16486866077083201</v>
+      </c>
+      <c r="I13" s="7">
+        <v>-1.8743679127167201</v>
+      </c>
+      <c r="J13" s="13">
+        <v>9.8690164709129904E-2</v>
+      </c>
+      <c r="K13" s="7">
+        <v>2.32117185062239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4">
+        <v>100</v>
+      </c>
+      <c r="C14" s="13">
+        <v>99.916943521594675</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.122428222001012</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.112546019620249</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.117864659874859</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1.4805644648609</v>
+      </c>
+      <c r="H14" s="13">
+        <v>-6.4530387131475006E-2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>-3.7410933198239902</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.714273129837253</v>
+      </c>
+      <c r="K14" s="7">
+        <v>3.569820145584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4">
+        <v>100</v>
+      </c>
+      <c r="C15" s="13">
+        <v>99.916943521594675</v>
+      </c>
+      <c r="D15" s="13">
+        <v>-0.108699397200593</v>
+      </c>
+      <c r="E15" s="7">
+        <v>-0.109489477492712</v>
+      </c>
+      <c r="F15" s="13">
+        <v>7.1784430506682498E-2</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1.00878561980918</v>
+      </c>
+      <c r="H15" s="13">
+        <v>-0.25811113139321601</v>
+      </c>
+      <c r="I15" s="7">
+        <v>-3.0159101257679999</v>
+      </c>
+      <c r="J15" s="13">
+        <v>2.8352088003349998E-2</v>
+      </c>
+      <c r="K15" s="7">
+        <v>2.3851306676844701</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Python3Code/Chapter2/results/describe_run_walk_excel.xlsx
+++ b/Python3Code/Chapter2/results/describe_run_walk_excel.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Documents\Uni\Master AI\Machine Learning for the Quantified Self\ML4QS_group25\Python3Code\Chapter2\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01E7514-EDAB-4E90-9E1F-E9357B32F2C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19E6376-0914-496C-88D8-A87886BB1610}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{09D8DB7E-7625-417D-A35E-6CD5374BD5C0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{09D8DB7E-7625-417D-A35E-6CD5374BD5C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Walking_250" sheetId="1" r:id="rId1"/>
     <sheet name="Running_250" sheetId="2" r:id="rId2"/>
-    <sheet name="Walking_6000" sheetId="4" r:id="rId3"/>
+    <sheet name="Walking_60000" sheetId="4" r:id="rId3"/>
     <sheet name="Running_6000" sheetId="5" r:id="rId4"/>
     <sheet name="Merged" sheetId="3" r:id="rId5"/>
     <sheet name="Merged_new" sheetId="6" r:id="rId6"/>
@@ -247,30 +247,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,7 +594,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1929,28 +1935,28 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>-7.7343884757992906E-2</v>
+        <v>-9.7290548538350299E-2</v>
       </c>
       <c r="D2">
-        <v>0.466649768885885</v>
+        <v>0.22824021321599</v>
       </c>
       <c r="E2">
-        <v>-0.96450660084095496</v>
+        <v>-0.41623825963428002</v>
       </c>
       <c r="F2">
-        <v>-0.41228614127679297</v>
+        <v>-0.206197601089747</v>
       </c>
       <c r="G2">
-        <v>-9.7040755674762502E-2</v>
+        <v>-0.13779333639666699</v>
       </c>
       <c r="H2">
-        <v>0.20196945075123099</v>
+        <v>6.2115862020289597E-2</v>
       </c>
       <c r="I2">
-        <v>1.12795563112486</v>
+        <v>0.20832840235901201</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1958,28 +1964,28 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>2.2827753992286399</v>
+        <v>2.1926108229658601</v>
       </c>
       <c r="D3">
-        <v>0.468754849740391</v>
+        <v>0.388735002019301</v>
       </c>
       <c r="E3">
-        <v>1.5082071732086599</v>
+        <v>1.68171201477777</v>
       </c>
       <c r="F3">
-        <v>1.9578194923815699</v>
+        <v>1.9705932856083199</v>
       </c>
       <c r="G3">
-        <v>2.1204679335857901</v>
+        <v>2.1700407941701898</v>
       </c>
       <c r="H3">
-        <v>2.5995488731337399</v>
+        <v>2.3747611549189198</v>
       </c>
       <c r="I3">
-        <v>3.3958454506409002</v>
+        <v>2.78675927675416</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1987,28 +1993,28 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>9.1827979899345493</v>
+        <v>9.0645583060903601</v>
       </c>
       <c r="D4">
-        <v>0.174591738063893</v>
+        <v>0.33862104126849601</v>
       </c>
       <c r="E4">
         <v>8.3945270776388892</v>
       </c>
       <c r="F4">
-        <v>9.0878981987142797</v>
+        <v>9.0916660798380295</v>
       </c>
       <c r="G4">
-        <v>9.2247347441565992</v>
+        <v>9.1725113920645995</v>
       </c>
       <c r="H4">
-        <v>9.2976558342588298</v>
+        <v>9.2586481357167703</v>
       </c>
       <c r="I4">
-        <v>9.3894327777286506</v>
+        <v>9.2957219487440703</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -2016,25 +2022,25 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>2.5866123594319099E-3</v>
+        <v>2.9387876618388299E-2</v>
       </c>
       <c r="D5">
-        <v>2.7509342510871799E-2</v>
+        <v>7.4415803145503806E-2</v>
       </c>
       <c r="E5">
-        <v>-2.67493818907731E-2</v>
+        <v>-4.02093536338426E-3</v>
       </c>
       <c r="F5">
-        <v>-6.9234345812846602E-3</v>
-      </c>
-      <c r="G5">
-        <v>-1.4683163221653401E-3</v>
+        <v>-9.9979185675195593E-4</v>
+      </c>
+      <c r="G5" s="7">
+        <v>-5.4620043470305598E-5</v>
       </c>
       <c r="H5">
-        <v>7.7101566719193996E-3</v>
+        <v>3.7635666440522197E-4</v>
       </c>
       <c r="I5">
         <v>0.18125226872146999</v>
@@ -2045,25 +2051,25 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>4.6336658769218003E-3</v>
+        <v>2.90428128336707E-2</v>
       </c>
       <c r="D6">
-        <v>2.57023713318556E-2</v>
+        <v>6.7821604482265901E-2</v>
       </c>
       <c r="E6">
-        <v>-2.1189870088090298E-2</v>
+        <v>-4.9064746710176903E-3</v>
       </c>
       <c r="F6">
-        <v>-6.1089773883652504E-3</v>
+        <v>5.86915341190967E-4</v>
       </c>
       <c r="G6">
-        <v>3.4843753529134598E-3</v>
+        <v>3.4356046032937701E-3</v>
       </c>
       <c r="H6">
-        <v>7.6533269291960198E-3</v>
+        <v>4.88857530448095E-3</v>
       </c>
       <c r="I6">
         <v>0.16728189134108801</v>
@@ -2074,25 +2080,25 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>5.4610421563197403E-3</v>
+        <v>3.5872306778903802E-2</v>
       </c>
       <c r="D7">
-        <v>3.2917845425101303E-2</v>
+        <v>8.4432147472494001E-2</v>
       </c>
       <c r="E7">
-        <v>-3.4293160422500399E-2</v>
+        <v>-3.2170925999461101E-3</v>
       </c>
       <c r="F7">
-        <v>-1.03665188621344E-2</v>
+        <v>8.8782691718177495E-4</v>
       </c>
       <c r="G7">
-        <v>1.2482015389779599E-3</v>
+        <v>2.7031784152504799E-3</v>
       </c>
       <c r="H7">
-        <v>1.4469591599578601E-2</v>
+        <v>4.1480900306827698E-3</v>
       </c>
       <c r="I7">
         <v>0.20813213945588199</v>
@@ -2103,28 +2109,28 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>-0.19615433363212001</v>
+        <v>-0.25265799011054901</v>
       </c>
       <c r="D8">
-        <v>0.42819584682642098</v>
+        <v>0.28514127268727502</v>
       </c>
       <c r="E8">
-        <v>-2.64462039966444</v>
+        <v>-0.66380217388132901</v>
       </c>
       <c r="F8">
-        <v>-0.115561944255871</v>
+        <v>-0.45264580433698498</v>
       </c>
       <c r="G8">
-        <v>-8.0293513632207394E-2</v>
+        <v>-8.2016100870717201E-2</v>
       </c>
       <c r="H8">
-        <v>-5.2327945610270599E-2</v>
+        <v>-6.5446211023776193E-2</v>
       </c>
       <c r="I8">
-        <v>3.80599236886908E-4</v>
+        <v>-5.2001611806664003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -2132,28 +2138,28 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>-2.6598040737218699E-2</v>
+        <v>-9.5375931180839701E-2</v>
       </c>
       <c r="D9">
-        <v>8.6099795983417604E-2</v>
+        <v>0.19317305609537699</v>
       </c>
       <c r="E9">
         <v>-0.48508373327142801</v>
       </c>
       <c r="F9">
-        <v>-5.5484064092216297E-2</v>
+        <v>-4.7605182345137997E-2</v>
       </c>
       <c r="G9">
-        <v>-2.34639128046947E-2</v>
+        <v>-3.0678480615390299E-2</v>
       </c>
       <c r="H9">
-        <v>3.56988961352914E-3</v>
+        <v>-1.2967920447645E-2</v>
       </c>
       <c r="I9">
-        <v>0.26360209538020601</v>
+        <v>3.4496924063954403E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -2161,28 +2167,28 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>-0.308121202739852</v>
+        <v>-0.45277853196480899</v>
       </c>
       <c r="D10">
-        <v>0.14410842842975299</v>
+        <v>0.40170032826840901</v>
       </c>
       <c r="E10">
         <v>-1.2724916595142799</v>
       </c>
       <c r="F10">
-        <v>-0.32330229832659102</v>
+        <v>-0.29860389660202102</v>
       </c>
       <c r="G10">
-        <v>-0.29319557350026798</v>
+        <v>-0.29572237351441899</v>
       </c>
       <c r="H10">
-        <v>-0.26225166122427701</v>
+        <v>-0.28191007230688198</v>
       </c>
       <c r="I10">
-        <v>-0.15076058695456501</v>
+        <v>-0.27586440904347398</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -2190,28 +2196,28 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>52.255127204013299</v>
-      </c>
-      <c r="D11" s="12">
-        <v>9.1715450273098601E-6</v>
+        <v>52.255127317812402</v>
+      </c>
+      <c r="D11" s="7">
+        <v>6.8196464745177003E-6</v>
       </c>
       <c r="E11">
-        <v>52.255090103999997</v>
+        <v>52.255119905833297</v>
       </c>
       <c r="F11">
-        <v>52.255122810833299</v>
+        <v>52.255123140499997</v>
       </c>
       <c r="G11">
-        <v>52.255126817499999</v>
+        <v>52.255126789000002</v>
       </c>
       <c r="H11">
-        <v>52.255131080416596</v>
+        <v>52.255128908135497</v>
       </c>
       <c r="I11">
-        <v>52.255144731666597</v>
+        <v>52.255137845593197</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -2219,28 +2225,28 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>4.5767568185140002</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1.27971565768215E-5</v>
+        <v>4.5767568937059799</v>
+      </c>
+      <c r="D12" s="7">
+        <v>9.9924046096723793E-6</v>
       </c>
       <c r="E12">
-        <v>4.5767310180000003</v>
+        <v>4.5767426243220299</v>
       </c>
       <c r="F12">
-        <v>4.5767518325833301</v>
+        <v>4.57675205768333</v>
       </c>
       <c r="G12">
-        <v>4.5767582929166597</v>
+        <v>4.5767574958833297</v>
       </c>
       <c r="H12">
-        <v>4.5767617351666603</v>
+        <v>4.5767654961666597</v>
       </c>
       <c r="I12">
-        <v>4.5768002026666599</v>
+        <v>4.5767667944745698</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -2248,28 +2254,28 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>3.4276077603574602</v>
+        <v>3.43340827604576</v>
       </c>
       <c r="D13">
-        <v>0.53678698333175501</v>
+        <v>0.27665813552847501</v>
       </c>
       <c r="E13">
-        <v>2.1823183575399998</v>
+        <v>3.1504468192333301</v>
       </c>
       <c r="F13">
-        <v>3.1400597981249998</v>
+        <v>3.18844574846666</v>
       </c>
       <c r="G13">
-        <v>3.32027471991666</v>
+        <v>3.3895466074999998</v>
       </c>
       <c r="H13">
-        <v>3.60772117529166</v>
+        <v>3.7007026155203402</v>
       </c>
       <c r="I13">
-        <v>5.3765271243333297</v>
+        <v>3.7378995895084701</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -2277,13 +2283,13 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>1.18744641338E-2</v>
+        <v>1.02229075911864E-2</v>
       </c>
       <c r="D14">
-        <v>7.7449592885429699E-2</v>
+        <v>2.2859116301591501E-2</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2298,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.54658150074</v>
+        <v>5.1114537955932203E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -2306,13 +2312,13 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>5.77153208416666</v>
+        <v>5.1019575733220304</v>
       </c>
       <c r="D15">
-        <v>33.027970807376597</v>
+        <v>11.408323952267899</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2327,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>226.38214112</v>
+        <v>25.5097878666101</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -2335,13 +2341,13 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>4.4285519981199997</v>
+        <v>4.4135751396497103</v>
       </c>
       <c r="D16">
-        <v>0.95806305157145999</v>
+        <v>0.54799127215507504</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -2350,13 +2356,13 @@
         <v>4</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>4.1333333333333302</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>4.6779661016949099</v>
       </c>
       <c r="I16">
-        <v>8.4275999059999993</v>
+        <v>5.2565762632203299</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -2364,13 +2370,13 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>4.0494564104693298</v>
+        <v>3.9878068358779601</v>
       </c>
       <c r="D17">
-        <v>4.1216093892940497</v>
+        <v>2.2088032336621102</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -2385,7 +2391,7 @@
         <v>3</v>
       </c>
       <c r="I17">
-        <v>26.4339065568</v>
+        <v>7.9390341793898296</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -2393,28 +2399,28 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>-5.1143501984869397</v>
+        <v>-5.4568136306656996</v>
       </c>
       <c r="D18">
-        <v>2.31559503429976</v>
+        <v>1.5220867695403699</v>
       </c>
       <c r="E18">
-        <v>-11.8076997295266</v>
+        <v>-7.3885712624285702</v>
       </c>
       <c r="F18">
-        <v>-6.1352498514383296</v>
+        <v>-6.2356180903859801</v>
       </c>
       <c r="G18">
-        <v>-4.9905998730433296</v>
+        <v>-5.8760763833142899</v>
       </c>
       <c r="H18">
-        <v>-3.6230499098911002</v>
+        <v>-4.3160809813129397</v>
       </c>
       <c r="I18">
-        <v>-1.3847999651716301</v>
+        <v>-3.44860991488135</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -2422,28 +2428,28 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>-11.940240558868201</v>
+        <v>-11.686807047111801</v>
       </c>
       <c r="D19">
-        <v>2.5238019483571801</v>
+        <v>1.7143551608238301</v>
       </c>
       <c r="E19">
-        <v>-17.900799617933298</v>
+        <v>-14.3483920733457</v>
       </c>
       <c r="F19">
-        <v>-13.540149710962501</v>
+        <v>-12.665136362101499</v>
       </c>
       <c r="G19">
-        <v>-11.3276997547883</v>
+        <v>-11.2192448773121</v>
       </c>
       <c r="H19">
-        <v>-10.238113917860399</v>
+        <v>-10.263041907754801</v>
       </c>
       <c r="I19">
-        <v>-7.4334998399316596</v>
+        <v>-10.242552679767201</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -2451,28 +2457,28 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>7.6416120248686203</v>
+        <v>7.4424219504943396</v>
       </c>
       <c r="D20">
-        <v>1.2245552094249901</v>
+        <v>0.89520415110190299</v>
       </c>
       <c r="E20">
-        <v>5.1197998821599997</v>
+        <v>6.3171426227142797</v>
       </c>
       <c r="F20">
-        <v>6.8044998482958299</v>
+        <v>6.7683678000649596</v>
       </c>
       <c r="G20">
-        <v>7.6217998197733197</v>
+        <v>7.5101451654600098</v>
       </c>
       <c r="H20">
-        <v>8.2177998213024903</v>
+        <v>7.9507321958324804</v>
       </c>
       <c r="I20">
-        <v>11.132599743861601</v>
+        <v>8.6983955317751693</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -2480,28 +2486,28 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>999.60657791785195</v>
+        <v>999.60659649252398</v>
       </c>
       <c r="D21">
-        <v>1.87708228488918E-2</v>
+        <v>1.01467237292168E-2</v>
       </c>
       <c r="E21">
-        <v>999.55672200499998</v>
+        <v>999.59147937145201</v>
       </c>
       <c r="F21">
-        <v>999.59413452499905</v>
+        <v>999.60426880033401</v>
       </c>
       <c r="G21">
-        <v>999.60621134666599</v>
+        <v>999.60800903300003</v>
       </c>
       <c r="H21">
-        <v>999.61978657791599</v>
+        <v>999.60974609250002</v>
       </c>
       <c r="I21">
-        <v>999.64282226499995</v>
+        <v>999.61947916533302</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -2579,28 +2585,28 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>-1.0273551866075601</v>
+        <v>-0.90633312327286897</v>
       </c>
       <c r="D2">
-        <v>0.55062448022278199</v>
+        <v>0.39249329495948199</v>
       </c>
       <c r="E2">
-        <v>-2.30841212151519</v>
+        <v>-1.30181422043317</v>
       </c>
       <c r="F2">
-        <v>-1.35753625674031</v>
+        <v>-1.1394061931886299</v>
       </c>
       <c r="G2">
-        <v>-0.97909877787102695</v>
+        <v>-1.0311519082835401</v>
       </c>
       <c r="H2">
-        <v>-0.75898750892038802</v>
+        <v>-0.76623526121839602</v>
       </c>
       <c r="I2">
-        <v>0.30063392500610903</v>
+        <v>-0.22046003561660599</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -2608,28 +2614,28 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>4.4422003181155896</v>
+        <v>4.5857512096519599</v>
       </c>
       <c r="D3">
-        <v>0.54016355480443201</v>
+        <v>0.54152951006217598</v>
       </c>
       <c r="E3">
-        <v>3.0852768877657999</v>
+        <v>3.8777045112570501</v>
       </c>
       <c r="F3">
-        <v>3.9990634393819802</v>
+        <v>4.2793020730287701</v>
       </c>
       <c r="G3">
-        <v>4.47009669695474</v>
+        <v>4.5629810762309404</v>
       </c>
       <c r="H3">
-        <v>4.7808276813857598</v>
+        <v>4.8358974912651496</v>
       </c>
       <c r="I3">
-        <v>5.6484941179044696</v>
+        <v>5.3992285592882396</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -2637,25 +2643,25 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>8.7107267038203702</v>
+        <v>8.7851982535427702</v>
       </c>
       <c r="D4">
-        <v>0.262849079077841</v>
+        <v>0.24019596821186601</v>
       </c>
       <c r="E4">
-        <v>7.98621739086233</v>
+        <v>8.5643578626141501</v>
       </c>
       <c r="F4">
-        <v>8.5288937034258208</v>
+        <v>8.6050547043010202</v>
       </c>
       <c r="G4">
-        <v>8.7133845540593295</v>
+        <v>8.7415816781754394</v>
       </c>
       <c r="H4">
-        <v>8.8730303996263995</v>
+        <v>8.8581067088444208</v>
       </c>
       <c r="I4">
         <v>9.207174203548</v>
@@ -2666,25 +2672,25 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>-5.3769827822065401E-2</v>
+        <v>-3.0849988071557501E-2</v>
       </c>
       <c r="D5">
-        <v>5.3755086953914802E-2</v>
+        <v>6.6919394045539093E-2</v>
       </c>
       <c r="E5">
-        <v>-0.16486866077083201</v>
+        <v>-8.5732921612546004E-2</v>
       </c>
       <c r="F5">
-        <v>-8.7646011356994194E-2</v>
+        <v>-6.9947208095538699E-2</v>
       </c>
       <c r="G5">
-        <v>-5.06091678406781E-2</v>
+        <v>-4.4451910671148599E-2</v>
       </c>
       <c r="H5">
-        <v>-2.4721920780498501E-2</v>
+        <v>-3.4143759877759298E-2</v>
       </c>
       <c r="I5">
         <v>9.8690164709129904E-2</v>
@@ -2695,25 +2701,25 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>0.122428222001012</v>
+        <v>0.21114572808933599</v>
       </c>
       <c r="D6">
-        <v>0.117864659874859</v>
+        <v>0.24762630145356901</v>
       </c>
       <c r="E6">
-        <v>-6.4530387131475006E-2</v>
+        <v>6.5100949645069198E-2</v>
       </c>
       <c r="F6">
-        <v>5.9249143548419599E-2</v>
+        <v>0.11295928515617</v>
       </c>
       <c r="G6">
-        <v>0.103039935248457</v>
+        <v>0.122156633609948</v>
       </c>
       <c r="H6">
-        <v>0.18045671983370701</v>
+        <v>0.13050929802415301</v>
       </c>
       <c r="I6">
         <v>0.714273129837253</v>
@@ -2724,28 +2730,28 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>-0.108699397200593</v>
+        <v>-0.102375733413753</v>
       </c>
       <c r="D7">
-        <v>7.1784430506682498E-2</v>
+        <v>4.05998150420512E-2</v>
       </c>
       <c r="E7">
-        <v>-0.25811113139321601</v>
+        <v>-0.15730144557211501</v>
       </c>
       <c r="F7">
-        <v>-0.15401205878638399</v>
+        <v>-0.13377841770871801</v>
       </c>
       <c r="G7">
-        <v>-0.103422337560162</v>
+        <v>-9.0108915445003601E-2</v>
       </c>
       <c r="H7">
-        <v>-5.5266403153329299E-2</v>
+        <v>-7.1742941342788802E-2</v>
       </c>
       <c r="I7">
-        <v>2.8352088003349998E-2</v>
+        <v>-6.2779255581724605E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -2753,28 +2759,28 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>-1.1351722181557899</v>
+        <v>-1.11403800220396</v>
       </c>
       <c r="D8">
-        <v>0.29116004530370099</v>
+        <v>0.19303771620163801</v>
       </c>
       <c r="E8">
-        <v>-1.7322099750525899</v>
+        <v>-1.29473983785209</v>
       </c>
       <c r="F8">
-        <v>-1.36014652981277</v>
+        <v>-1.2761077964027301</v>
       </c>
       <c r="G8">
-        <v>-1.1545163009135799</v>
+        <v>-1.1459258780166199</v>
       </c>
       <c r="H8">
-        <v>-0.93263419191822206</v>
+        <v>-1.00870499911379</v>
       </c>
       <c r="I8">
-        <v>-0.35809159424852299</v>
+        <v>-0.81516994399418297</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -2782,28 +2788,28 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>-0.28717148290393801</v>
+        <v>-0.29377051521348002</v>
       </c>
       <c r="D9">
-        <v>0.19207362048037899</v>
+        <v>7.5187372396292695E-2</v>
       </c>
       <c r="E9">
-        <v>-0.79040179770183205</v>
+        <v>-0.39362089281991602</v>
       </c>
       <c r="F9">
-        <v>-0.39476557370554599</v>
+        <v>-0.32340558327149499</v>
       </c>
       <c r="G9">
-        <v>-0.30276853283279997</v>
+        <v>-0.29765880106243098</v>
       </c>
       <c r="H9">
-        <v>-0.19625842392915799</v>
+        <v>-0.28198595357989198</v>
       </c>
       <c r="I9">
-        <v>0.17216419815981901</v>
+        <v>-0.164935081242539</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -2811,25 +2817,25 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>0.37629602835862203</v>
+        <v>0.55076995018508101</v>
       </c>
       <c r="D10">
-        <v>0.31736920561856502</v>
+        <v>0.50456427445827601</v>
       </c>
       <c r="E10">
-        <v>-0.19097808202685801</v>
+        <v>0.219162274044126</v>
       </c>
       <c r="F10">
-        <v>0.19008812069662401</v>
+        <v>0.23868116408550699</v>
       </c>
       <c r="G10">
-        <v>0.34760241430181599</v>
+        <v>0.378916611907474</v>
       </c>
       <c r="H10">
-        <v>0.56181407035006004</v>
+        <v>0.54195431509455205</v>
       </c>
       <c r="I10">
         <v>1.53938797228297</v>
@@ -2840,28 +2846,28 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>52.2551256721746</v>
-      </c>
-      <c r="D11" s="12">
-        <v>8.0184081314628401E-6</v>
+        <v>52.255126490666598</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5.7777290709638197E-6</v>
       </c>
       <c r="E11">
-        <v>52.255111178333301</v>
+        <v>52.255115836166603</v>
       </c>
       <c r="F11">
-        <v>52.255120716666603</v>
+        <v>52.255125202499997</v>
       </c>
       <c r="G11">
-        <v>52.255126073333301</v>
+        <v>52.255128402499899</v>
       </c>
       <c r="H11">
-        <v>52.255131141785697</v>
+        <v>52.255130085875003</v>
       </c>
       <c r="I11">
-        <v>52.255152293999899</v>
+        <v>52.255131519999999</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -2869,28 +2875,28 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>4.5767785732635797</v>
-      </c>
-      <c r="D12" s="12">
-        <v>9.3227858799335794E-6</v>
+        <v>4.5767804689611102</v>
+      </c>
+      <c r="D12" s="7">
+        <v>7.8577596487290503E-6</v>
       </c>
       <c r="E12">
-        <v>4.5767655137999999</v>
+        <v>4.5767695044833303</v>
       </c>
       <c r="F12">
-        <v>4.57676949291666</v>
+        <v>4.5767769905250004</v>
       </c>
       <c r="G12">
-        <v>4.5767771023333301</v>
+        <v>4.5767789404166601</v>
       </c>
       <c r="H12">
-        <v>4.5767863178333297</v>
+        <v>4.5767859922708301</v>
       </c>
       <c r="I12">
-        <v>4.5767945306666604</v>
+        <v>4.5767907450000003</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -2898,28 +2904,28 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>5.0650771005706403</v>
+        <v>5.2056901920633303</v>
       </c>
       <c r="D13">
-        <v>1.5770604559857699</v>
+        <v>0.42482617139342499</v>
       </c>
       <c r="E13">
-        <v>-2.3541681720400001</v>
+        <v>4.72295161253333</v>
       </c>
       <c r="F13">
-        <v>4.7042350985833297</v>
+        <v>4.8589099301991601</v>
       </c>
       <c r="G13">
-        <v>4.8747279379999897</v>
+        <v>5.1891461476649896</v>
       </c>
       <c r="H13">
-        <v>5.2921456094166599</v>
+        <v>5.5319767800208304</v>
       </c>
       <c r="I13">
-        <v>11.9388388121428</v>
+        <v>5.7378123959999998</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -2927,13 +2933,13 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>1.1104533301120399E-2</v>
+        <v>9.6376290747222197E-3</v>
       </c>
       <c r="D14">
-        <v>5.5970891454344501E-2</v>
+        <v>2.3607273563281E-2</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2948,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.31894523755714199</v>
+        <v>5.7825774448333297E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -2956,13 +2962,13 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>6.1874219668347301</v>
+        <v>5.2716071449999999</v>
       </c>
       <c r="D15">
-        <v>30.934090355975499</v>
+        <v>12.91274762966</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2977,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>159.992985328571</v>
+        <v>31.629642869999898</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -2985,13 +2991,13 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>4.3426948655929003</v>
+        <v>4.2969750006944398</v>
       </c>
       <c r="D16">
-        <v>1.34119424625439</v>
+        <v>0.72743721806406902</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -3006,7 +3012,7 @@
         <v>4</v>
       </c>
       <c r="I16">
-        <v>11.4285714285714</v>
+        <v>5.7818500041666603</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -3014,13 +3020,13 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>4.6587966687551798</v>
+        <v>4.3211219861666601</v>
       </c>
       <c r="D17">
-        <v>7.76630961145489</v>
+        <v>3.2360747540805899</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -3035,7 +3041,7 @@
         <v>3</v>
       </c>
       <c r="I17">
-        <v>55.082053764800001</v>
+        <v>10.926731917</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -3043,28 +3049,28 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>-0.29086655953718599</v>
+        <v>-0.67314693633765998</v>
       </c>
       <c r="D18">
-        <v>2.74929770341621</v>
+        <v>1.4188330562318601</v>
       </c>
       <c r="E18">
-        <v>-6.1993998637091998</v>
+        <v>-2.8481999485229998</v>
       </c>
       <c r="F18">
-        <v>-2.1024499524472802</v>
+        <v>-1.58970123377671</v>
       </c>
       <c r="G18">
-        <v>-0.15890000114649999</v>
+        <v>-0.110514998493221</v>
       </c>
       <c r="H18">
-        <v>1.4757999617344799</v>
+        <v>0.33145749166937499</v>
       </c>
       <c r="I18">
-        <v>7.1321998440347301</v>
+        <v>0.63432998463111501</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -3072,28 +3078,28 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>-24.704669453790199</v>
+        <v>-25.6835686068409</v>
       </c>
       <c r="D19">
-        <v>3.96967809532967</v>
+        <v>3.9862106887117901</v>
       </c>
       <c r="E19">
         <v>-31.213199291299901</v>
       </c>
       <c r="F19">
-        <v>-27.513899405958298</v>
+        <v>-28.224116882819899</v>
       </c>
       <c r="G19">
-        <v>-25.122799422149999</v>
+        <v>-25.5217094343081</v>
       </c>
       <c r="H19">
-        <v>-22.369149517124999</v>
+        <v>-22.947750793675201</v>
       </c>
       <c r="I19">
-        <v>-11.186799762427601</v>
+        <v>-20.630109535341099</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -3101,28 +3107,28 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>17.4699412207484</v>
+        <v>18.055212889821199</v>
       </c>
       <c r="D20">
-        <v>3.1891181330352598</v>
+        <v>2.2998910002370798</v>
       </c>
       <c r="E20">
-        <v>1.8707216988673501</v>
+        <v>15.533229653264</v>
       </c>
       <c r="F20">
-        <v>16.370299663584198</v>
+        <v>16.0600844383486</v>
       </c>
       <c r="G20">
-        <v>18.120099589235</v>
+        <v>18.1867246027833</v>
       </c>
       <c r="H20">
-        <v>19.180399580967499</v>
+        <v>19.357377081390801</v>
       </c>
       <c r="I20">
-        <v>23.270299469933299</v>
+        <v>21.325799522299999</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -3130,28 +3136,28 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>999.56281271873195</v>
+        <v>999.56410620047905</v>
       </c>
       <c r="D21">
-        <v>2.06616265557709E-2</v>
+        <v>1.5854889588049498E-2</v>
       </c>
       <c r="E21">
-        <v>999.51253661666601</v>
+        <v>999.54234392721105</v>
       </c>
       <c r="F21">
-        <v>999.55330200583296</v>
+        <v>999.55460927287504</v>
       </c>
       <c r="G21">
-        <v>999.56531982000001</v>
+        <v>999.56409341674896</v>
       </c>
       <c r="H21">
-        <v>999.577484130833</v>
+        <v>999.57388213599995</v>
       </c>
       <c r="I21">
-        <v>999.60811360833304</v>
+        <v>999.58551350816595</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -3187,581 +3193,633 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE014CF-F105-4FF6-98EB-F661A64E24E5}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="8.6328125" customWidth="1"/>
+    <col min="2" max="13" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="3"/>
+      <c r="M1" s="13"/>
       <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="10"/>
-      <c r="M2" s="1"/>
+      <c r="M2" s="12"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
         <v>1201</v>
       </c>
-      <c r="C3" s="6">
-        <v>100</v>
-      </c>
-      <c r="D3" s="6">
-        <f>B3/B3*100</f>
-        <v>100</v>
-      </c>
-      <c r="E3" s="13">
-        <v>-7.7343884757992906E-2</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="D3" s="4">
+        <f>100-100</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <f>100-100</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>-9.7290548538350299E-2</v>
+      </c>
+      <c r="G3" s="6">
         <v>-7.4811513623453604E-2</v>
       </c>
-      <c r="G3" s="13">
-        <v>0.466649768885885</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
+        <v>0.22824021321599</v>
+      </c>
+      <c r="I3" s="6">
         <v>0.76046072468444204</v>
       </c>
-      <c r="I3" s="13">
-        <v>-0.96450660084095496</v>
-      </c>
-      <c r="J3" s="7">
+      <c r="J3" s="8">
+        <v>-0.41623825963428002</v>
+      </c>
+      <c r="K3" s="6">
         <v>-2.2796177749919901</v>
       </c>
-      <c r="K3" s="13">
-        <v>1.12795563112486</v>
-      </c>
-      <c r="L3" s="7">
+      <c r="L3" s="8">
+        <v>0.20832840235901201</v>
+      </c>
+      <c r="M3" s="6">
         <v>2.8741257896480001</v>
       </c>
-      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
         <v>1201</v>
       </c>
-      <c r="C4" s="6">
-        <v>100</v>
-      </c>
-      <c r="D4" s="6">
-        <f>B4/B3*100</f>
-        <v>100</v>
-      </c>
-      <c r="E4" s="13">
-        <v>2.2827753992286399</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:E8" si="0">100-100</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2.1926108229658601</v>
+      </c>
+      <c r="G4" s="6">
         <v>2.2942656098466698</v>
       </c>
-      <c r="G4" s="13">
-        <v>0.468754849740391</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
+        <v>0.388735002019301</v>
+      </c>
+      <c r="I4" s="6">
         <v>0.801477375157432</v>
       </c>
-      <c r="I4" s="13">
-        <v>1.5082071732086599</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="J4" s="8">
+        <v>1.68171201477777</v>
+      </c>
+      <c r="K4" s="6">
         <v>0.106708037396719</v>
       </c>
-      <c r="K4" s="13">
-        <v>3.3958454506409002</v>
-      </c>
-      <c r="L4" s="7">
+      <c r="L4" s="8">
+        <v>2.78675927675416</v>
+      </c>
+      <c r="M4" s="6">
         <v>4.657132648448</v>
       </c>
-      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5">
         <v>1201</v>
       </c>
-      <c r="C5" s="6">
-        <v>100</v>
-      </c>
-      <c r="D5" s="6">
-        <f>B5/B3*100</f>
-        <v>100</v>
-      </c>
-      <c r="E5" s="13">
-        <v>9.1827979899345493</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>9.0645583060903601</v>
+      </c>
+      <c r="G5" s="6">
         <v>9.1978695718612808</v>
       </c>
-      <c r="G5" s="13">
-        <v>0.174591738063893</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
+        <v>0.33862104126849601</v>
+      </c>
+      <c r="I5" s="6">
         <v>0.90035423554310401</v>
       </c>
-      <c r="I5" s="13">
+      <c r="J5" s="8">
         <v>8.3945270776388892</v>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="6">
         <v>7.1116856879999997</v>
       </c>
-      <c r="K5" s="13">
-        <v>9.3894327777286506</v>
-      </c>
-      <c r="L5" s="7">
+      <c r="L5" s="8">
+        <v>9.2957219487440703</v>
+      </c>
+      <c r="M5" s="6">
         <v>11.511424271199999</v>
       </c>
-      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
         <v>1200</v>
       </c>
-      <c r="C6" s="6">
-        <v>100</v>
-      </c>
-      <c r="D6" s="7">
-        <f>B6/B3*100</f>
-        <v>99.916736053288929</v>
-      </c>
-      <c r="E6" s="13">
-        <v>2.5866123594319099E-3</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <f>100-99.9167360532889</f>
+        <v>8.3263946711099379E-2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2.9387876618388299E-2</v>
+      </c>
+      <c r="G6" s="6">
         <v>-8.3418843256440804E-4</v>
       </c>
-      <c r="G6" s="13">
-        <v>2.7509342510871799E-2</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="H6" s="8">
+        <v>7.4415803145503806E-2</v>
+      </c>
+      <c r="I6" s="6">
         <v>0.16816086114158299</v>
       </c>
-      <c r="I6" s="13">
-        <v>-2.67493818907731E-2</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="J6" s="8">
+        <v>-4.02093536338426E-3</v>
+      </c>
+      <c r="K6" s="6">
         <v>-0.69996238484152895</v>
       </c>
-      <c r="K6" s="13">
+      <c r="L6" s="8">
         <v>0.18125226872146999</v>
       </c>
-      <c r="L6" s="7">
+      <c r="M6" s="6">
         <v>0.51741874690484002</v>
       </c>
-      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
         <v>1200</v>
       </c>
-      <c r="C7" s="6">
-        <v>100</v>
-      </c>
-      <c r="D7" s="7">
-        <f>B7/B3*100</f>
-        <v>99.916736053288929</v>
-      </c>
-      <c r="E7" s="13">
-        <v>4.6336658769218003E-3</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <f>100-99.9167360532889</f>
+        <v>8.3263946711099379E-2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2.90428128336707E-2</v>
+      </c>
+      <c r="G7" s="6">
         <v>1.53027322586273E-3</v>
       </c>
-      <c r="G7" s="13">
-        <v>2.57023713318556E-2</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="H7" s="8">
+        <v>6.7821604482265901E-2</v>
+      </c>
+      <c r="I7" s="6">
         <v>0.15389005355134699</v>
       </c>
-      <c r="I7" s="13">
-        <v>-2.1189870088090298E-2</v>
-      </c>
-      <c r="J7" s="7">
+      <c r="J7" s="8">
+        <v>-4.9064746710176903E-3</v>
+      </c>
+      <c r="K7" s="6">
         <v>-0.63540553327895999</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7" s="8">
         <v>0.16728189134108801</v>
       </c>
-      <c r="L7" s="7">
+      <c r="M7" s="6">
         <v>0.51370040907675596</v>
       </c>
-      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
         <v>1200</v>
       </c>
-      <c r="C8" s="6">
-        <v>100</v>
-      </c>
-      <c r="D8" s="7">
-        <f>B8/B3*100</f>
-        <v>99.916736053288929</v>
-      </c>
-      <c r="E8" s="13">
-        <v>5.4610421563197403E-3</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <f>100-99.9167360532889</f>
+        <v>8.3263946711099379E-2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>3.5872306778903802E-2</v>
+      </c>
+      <c r="G8" s="6">
         <v>1.57487814673367E-3</v>
       </c>
-      <c r="G8" s="13">
-        <v>3.2917845425101303E-2</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="H8" s="8">
+        <v>8.4432147472494001E-2</v>
+      </c>
+      <c r="I8" s="6">
         <v>0.29053702967954498</v>
       </c>
-      <c r="I8" s="13">
-        <v>-3.4293160422500399E-2</v>
-      </c>
-      <c r="J8" s="7">
+      <c r="J8" s="8">
+        <v>-3.2170925999461101E-3</v>
+      </c>
+      <c r="K8" s="6">
         <v>-0.81585696089199999</v>
       </c>
-      <c r="K8" s="13">
+      <c r="L8" s="8">
         <v>0.20813213945588199</v>
       </c>
-      <c r="L8" s="7">
+      <c r="M8" s="6">
         <v>0.93879237368879898</v>
       </c>
-      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
         <v>1204</v>
       </c>
-      <c r="C10" s="6">
-        <v>100</v>
-      </c>
-      <c r="D10" s="6">
-        <f>B10/B10*100</f>
-        <v>100</v>
-      </c>
-      <c r="E10" s="13">
-        <v>-1.0273551866075601</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="D10" s="4">
+        <f>100-100</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <f>100-100</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>-0.90633312327286897</v>
+      </c>
+      <c r="G10" s="6">
         <v>-1.0407921527469299</v>
       </c>
-      <c r="G10" s="13">
-        <v>0.55062448022278199</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="H10" s="8">
+        <v>0.39249329495948199</v>
+      </c>
+      <c r="I10" s="6">
         <v>2.8598204402641501</v>
       </c>
-      <c r="I10" s="13">
-        <v>-2.30841212151519</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="J10" s="8">
+        <v>-1.30181422043317</v>
+      </c>
+      <c r="K10" s="6">
         <v>-7.95964207049599</v>
       </c>
-      <c r="K10" s="13">
-        <v>0.30063392500610903</v>
-      </c>
-      <c r="L10" s="7">
+      <c r="L10" s="8">
+        <v>-0.22046003561660599</v>
+      </c>
+      <c r="M10" s="6">
         <v>5.3703009528879901</v>
       </c>
-      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5">
         <v>1204</v>
       </c>
-      <c r="C11" s="6">
-        <v>100</v>
-      </c>
-      <c r="D11" s="6">
-        <f>B11/B10*100</f>
-        <v>100</v>
-      </c>
-      <c r="E11" s="13">
-        <v>4.4422003181155896</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="D11" s="4">
+        <f t="shared" ref="D11:D15" si="1">100-100</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <f>100-100</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>4.5857512096519599</v>
+      </c>
+      <c r="G11" s="6">
         <v>4.4263161082706004</v>
       </c>
-      <c r="G11" s="13">
-        <v>0.54016355480443201</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="H11" s="8">
+        <v>0.54152951006217598</v>
+      </c>
+      <c r="I11" s="6">
         <v>2.0899051526477801</v>
       </c>
-      <c r="I11" s="13">
-        <v>3.0852768877657999</v>
-      </c>
-      <c r="J11" s="7">
+      <c r="J11" s="8">
+        <v>3.8777045112570501</v>
+      </c>
+      <c r="K11" s="6">
         <v>-1.02250858559311</v>
       </c>
-      <c r="K11" s="13">
-        <v>5.6484941179044696</v>
-      </c>
-      <c r="L11" s="7">
+      <c r="L11" s="8">
+        <v>5.3992285592882396</v>
+      </c>
+      <c r="M11" s="6">
         <v>9.2464403248719993</v>
       </c>
-      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
         <v>1204</v>
       </c>
-      <c r="C12" s="6">
-        <v>100</v>
-      </c>
-      <c r="D12" s="6">
-        <f>B12/B10*100</f>
-        <v>100</v>
-      </c>
-      <c r="E12" s="13">
-        <v>8.7107267038203702</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="D12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <f>100-100</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>8.7851982535427702</v>
+      </c>
+      <c r="G12" s="6">
         <v>8.7024713098617106</v>
       </c>
-      <c r="G12" s="13">
-        <v>0.262849079077841</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
+        <v>0.24019596821186601</v>
+      </c>
+      <c r="I12" s="6">
         <v>1.87910814236615</v>
       </c>
-      <c r="I12" s="13">
-        <v>7.98621739086233</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="J12" s="8">
+        <v>8.5643578626141501</v>
+      </c>
+      <c r="K12" s="6">
         <v>3.4311873462058302</v>
       </c>
-      <c r="K12" s="13">
+      <c r="L12" s="8">
         <v>9.207174203548</v>
       </c>
-      <c r="L12" s="7">
+      <c r="M12" s="6">
         <v>13.852086410344</v>
       </c>
-      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
         <v>1203</v>
       </c>
-      <c r="C13" s="6">
-        <v>100</v>
-      </c>
-      <c r="D13" s="7">
-        <f>B13/B10*100</f>
-        <v>99.916943521594675</v>
-      </c>
-      <c r="E13" s="13">
-        <v>-5.3769827822065401E-2</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="D13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <f>100-99.9169435215947</f>
+        <v>8.305647840529673E-2</v>
+      </c>
+      <c r="F13" s="8">
+        <v>-3.0849988071557501E-2</v>
+      </c>
+      <c r="G13" s="6">
         <v>-5.6252378282501701E-2</v>
       </c>
-      <c r="G13" s="13">
-        <v>5.3755086953914802E-2</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="H13" s="8">
+        <v>6.6919394045539093E-2</v>
+      </c>
+      <c r="I13" s="6">
         <v>0.81336207100962699</v>
       </c>
-      <c r="I13" s="13">
-        <v>-0.16486866077083201</v>
-      </c>
-      <c r="J13" s="7">
+      <c r="J13" s="8">
+        <v>-8.5732921612546004E-2</v>
+      </c>
+      <c r="K13" s="6">
         <v>-1.8743679127167201</v>
       </c>
-      <c r="K13" s="13">
+      <c r="L13" s="8">
         <v>9.8690164709129904E-2</v>
       </c>
-      <c r="L13" s="7">
+      <c r="M13" s="6">
         <v>2.32117185062239</v>
       </c>
-      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
         <v>1203</v>
       </c>
-      <c r="C14" s="6">
-        <v>100</v>
-      </c>
-      <c r="D14" s="7">
-        <f>B14/B10*100</f>
-        <v>99.916943521594675</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0.122428222001012</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="D14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <f>100-99.9169435215947</f>
+        <v>8.305647840529673E-2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.21114572808933599</v>
+      </c>
+      <c r="G14" s="6">
         <v>0.112546019620249</v>
       </c>
-      <c r="G14" s="13">
-        <v>0.117864659874859</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="H14" s="8">
+        <v>0.24762630145356901</v>
+      </c>
+      <c r="I14" s="6">
         <v>1.4805644648609</v>
       </c>
-      <c r="I14" s="13">
-        <v>-6.4530387131475006E-2</v>
-      </c>
-      <c r="J14" s="7">
+      <c r="J14" s="8">
+        <v>6.5100949645069198E-2</v>
+      </c>
+      <c r="K14" s="6">
         <v>-3.7410933198239902</v>
       </c>
-      <c r="K14" s="13">
+      <c r="L14" s="8">
         <v>0.714273129837253</v>
       </c>
-      <c r="L14" s="7">
+      <c r="M14" s="6">
         <v>3.569820145584</v>
       </c>
-      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5">
         <v>1203</v>
       </c>
-      <c r="C15" s="6">
-        <v>100</v>
-      </c>
-      <c r="D15" s="7">
-        <f>B15/B10*100</f>
-        <v>99.916943521594675</v>
-      </c>
-      <c r="E15" s="13">
-        <v>-0.108699397200593</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="D15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <f>100-99.9169435215947</f>
+        <v>8.305647840529673E-2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>-0.102375733413753</v>
+      </c>
+      <c r="G15" s="6">
         <v>-0.109489477492712</v>
       </c>
-      <c r="G15" s="13">
-        <v>7.1784430506682498E-2</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="H15" s="8">
+        <v>4.05998150420512E-2</v>
+      </c>
+      <c r="I15" s="6">
         <v>1.00878561980918</v>
       </c>
-      <c r="I15" s="13">
-        <v>-0.25811113139321601</v>
-      </c>
-      <c r="J15" s="7">
+      <c r="J15" s="8">
+        <v>-0.15730144557211501</v>
+      </c>
+      <c r="K15" s="6">
         <v>-3.0159101257679999</v>
       </c>
-      <c r="K15" s="13">
-        <v>2.8352088003349998E-2</v>
-      </c>
-      <c r="L15" s="7">
+      <c r="L15" s="8">
+        <v>-6.2779255581724605E-2</v>
+      </c>
+      <c r="M15" s="6">
         <v>2.3851306676844701</v>
       </c>
-      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A2:L2"/>
+  <mergeCells count="8">
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3772,85 +3830,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0136BBB-F35D-4ABA-8742-07EC29569879}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="11"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
-        <v>100</v>
-      </c>
-      <c r="C3" s="4">
-        <v>100</v>
-      </c>
-      <c r="D3" s="13">
-        <v>-7.7343884757992906E-2</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="B3" s="8">
+        <f>100-100</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <f>100-100</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>-9.7290548538350299E-2</v>
+      </c>
+      <c r="E3" s="6">
         <v>-7.4811513623453604E-2</v>
       </c>
-      <c r="F3" s="13">
-        <v>0.466649768885885</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="F3" s="8">
+        <v>0.22824021321599</v>
+      </c>
+      <c r="G3" s="6">
         <v>0.76046072468444204</v>
       </c>
-      <c r="H3" s="13">
-        <v>-0.96450660084095496</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="H3" s="8">
+        <v>-0.41623825963428002</v>
+      </c>
+      <c r="I3" s="6">
         <v>-2.2796177749919901</v>
       </c>
-      <c r="J3" s="13">
-        <v>1.12795563112486</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="J3" s="8">
+        <v>0.20832840235901201</v>
+      </c>
+      <c r="K3" s="6">
         <v>2.8741257896480001</v>
       </c>
     </row>
@@ -3858,34 +3919,36 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
-        <v>100</v>
-      </c>
-      <c r="C4" s="4">
-        <v>100</v>
-      </c>
-      <c r="D4" s="13">
-        <v>2.2827753992286399</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="B4" s="8">
+        <f t="shared" ref="B4:C8" si="0">100-100</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2.1926108229658601</v>
+      </c>
+      <c r="E4" s="6">
         <v>2.2942656098466698</v>
       </c>
-      <c r="F4" s="13">
-        <v>0.468754849740391</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="F4" s="8">
+        <v>0.388735002019301</v>
+      </c>
+      <c r="G4" s="6">
         <v>0.801477375157432</v>
       </c>
-      <c r="H4" s="13">
-        <v>1.5082071732086599</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="H4" s="8">
+        <v>1.68171201477777</v>
+      </c>
+      <c r="I4" s="6">
         <v>0.106708037396719</v>
       </c>
-      <c r="J4" s="13">
-        <v>3.3958454506409002</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="J4" s="8">
+        <v>2.78675927675416</v>
+      </c>
+      <c r="K4" s="6">
         <v>4.657132648448</v>
       </c>
     </row>
@@ -3893,34 +3956,36 @@
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
-        <v>100</v>
-      </c>
-      <c r="C5" s="4">
-        <v>100</v>
-      </c>
-      <c r="D5" s="13">
-        <v>9.1827979899345493</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="B5" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>9.0645583060903601</v>
+      </c>
+      <c r="E5" s="6">
         <v>9.1978695718612808</v>
       </c>
-      <c r="F5" s="13">
-        <v>0.174591738063893</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="8">
+        <v>0.33862104126849601</v>
+      </c>
+      <c r="G5" s="6">
         <v>0.90035423554310401</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="8">
         <v>8.3945270776388892</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>7.1116856879999997</v>
       </c>
-      <c r="J5" s="13">
-        <v>9.3894327777286506</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="J5" s="8">
+        <v>9.2957219487440703</v>
+      </c>
+      <c r="K5" s="6">
         <v>11.511424271199999</v>
       </c>
     </row>
@@ -3928,34 +3993,36 @@
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
-        <v>100</v>
-      </c>
-      <c r="C6" s="13">
-        <v>99.916736053288929</v>
-      </c>
-      <c r="D6" s="13">
-        <v>2.5866123594319099E-3</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="B6" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <f>100-99.9167360532889</f>
+        <v>8.3263946711099379E-2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2.9387876618388299E-2</v>
+      </c>
+      <c r="E6" s="6">
         <v>-8.3418843256440804E-4</v>
       </c>
-      <c r="F6" s="13">
-        <v>2.7509342510871799E-2</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="8">
+        <v>7.4415803145503806E-2</v>
+      </c>
+      <c r="G6" s="6">
         <v>0.16816086114158299</v>
       </c>
-      <c r="H6" s="13">
-        <v>-2.67493818907731E-2</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="H6" s="8">
+        <v>-4.02093536338426E-3</v>
+      </c>
+      <c r="I6" s="6">
         <v>-0.69996238484152895</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="8">
         <v>0.18125226872146999</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>0.51741874690484002</v>
       </c>
     </row>
@@ -3963,34 +4030,36 @@
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4">
-        <v>100</v>
-      </c>
-      <c r="C7" s="13">
-        <v>99.916736053288929</v>
-      </c>
-      <c r="D7" s="13">
-        <v>4.6336658769218003E-3</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="B7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <f>100-99.9167360532889</f>
+        <v>8.3263946711099379E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2.90428128336707E-2</v>
+      </c>
+      <c r="E7" s="6">
         <v>1.53027322586273E-3</v>
       </c>
-      <c r="F7" s="13">
-        <v>2.57023713318556E-2</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="F7" s="8">
+        <v>6.7821604482265901E-2</v>
+      </c>
+      <c r="G7" s="6">
         <v>0.15389005355134699</v>
       </c>
-      <c r="H7" s="13">
-        <v>-2.1189870088090298E-2</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="H7" s="8">
+        <v>-4.9064746710176903E-3</v>
+      </c>
+      <c r="I7" s="6">
         <v>-0.63540553327895999</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="8">
         <v>0.16728189134108801</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>0.51370040907675596</v>
       </c>
     </row>
@@ -3998,84 +4067,88 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4">
-        <v>100</v>
-      </c>
-      <c r="C8" s="13">
-        <v>99.916736053288929</v>
-      </c>
-      <c r="D8" s="13">
-        <v>5.4610421563197403E-3</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="B8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <f>100-99.9167360532889</f>
+        <v>8.3263946711099379E-2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>3.5872306778903802E-2</v>
+      </c>
+      <c r="E8" s="6">
         <v>1.57487814673367E-3</v>
       </c>
-      <c r="F8" s="13">
-        <v>3.2917845425101303E-2</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="F8" s="8">
+        <v>8.4432147472494001E-2</v>
+      </c>
+      <c r="G8" s="6">
         <v>0.29053702967954498</v>
       </c>
-      <c r="H8" s="13">
-        <v>-3.4293160422500399E-2</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="H8" s="8">
+        <v>-3.2170925999461101E-3</v>
+      </c>
+      <c r="I8" s="6">
         <v>-0.81585696089199999</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="8">
         <v>0.20813213945588199</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>0.93879237368879898</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4">
-        <v>100</v>
-      </c>
-      <c r="C10" s="4">
-        <v>100</v>
-      </c>
-      <c r="D10" s="13">
-        <v>-1.0273551866075601</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="B10" s="8">
+        <f>100-100</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <f>100-100</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>-0.90633312327286897</v>
+      </c>
+      <c r="E10" s="6">
         <v>-1.0407921527469299</v>
       </c>
-      <c r="F10" s="13">
-        <v>0.55062448022278199</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="F10" s="8">
+        <v>0.39249329495948199</v>
+      </c>
+      <c r="G10" s="6">
         <v>2.8598204402641501</v>
       </c>
-      <c r="H10" s="13">
-        <v>-2.30841212151519</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="H10" s="8">
+        <v>-1.30181422043317</v>
+      </c>
+      <c r="I10" s="6">
         <v>-7.95964207049599</v>
       </c>
-      <c r="J10" s="13">
-        <v>0.30063392500610903</v>
-      </c>
-      <c r="K10" s="7">
+      <c r="J10" s="8">
+        <v>-0.22046003561660599</v>
+      </c>
+      <c r="K10" s="6">
         <v>5.3703009528879901</v>
       </c>
     </row>
@@ -4083,34 +4156,36 @@
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4">
-        <v>100</v>
-      </c>
-      <c r="C11" s="4">
-        <v>100</v>
-      </c>
-      <c r="D11" s="13">
-        <v>4.4422003181155896</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="B11" s="8">
+        <f t="shared" ref="B11:B15" si="1">100-100</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <f>100-100</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>4.5857512096519599</v>
+      </c>
+      <c r="E11" s="6">
         <v>4.4263161082706004</v>
       </c>
-      <c r="F11" s="13">
-        <v>0.54016355480443201</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="F11" s="8">
+        <v>0.54152951006217598</v>
+      </c>
+      <c r="G11" s="6">
         <v>2.0899051526477801</v>
       </c>
-      <c r="H11" s="13">
-        <v>3.0852768877657999</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="H11" s="8">
+        <v>3.8777045112570501</v>
+      </c>
+      <c r="I11" s="6">
         <v>-1.02250858559311</v>
       </c>
-      <c r="J11" s="13">
-        <v>5.6484941179044696</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="J11" s="8">
+        <v>5.3992285592882396</v>
+      </c>
+      <c r="K11" s="6">
         <v>9.2464403248719993</v>
       </c>
     </row>
@@ -4118,34 +4193,36 @@
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4">
-        <v>100</v>
-      </c>
-      <c r="C12" s="4">
-        <v>100</v>
-      </c>
-      <c r="D12" s="13">
-        <v>8.7107267038203702</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="B12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <f>100-100</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>8.7851982535427702</v>
+      </c>
+      <c r="E12" s="6">
         <v>8.7024713098617106</v>
       </c>
-      <c r="F12" s="13">
-        <v>0.262849079077841</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="F12" s="8">
+        <v>0.24019596821186601</v>
+      </c>
+      <c r="G12" s="6">
         <v>1.87910814236615</v>
       </c>
-      <c r="H12" s="13">
-        <v>7.98621739086233</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="H12" s="8">
+        <v>8.5643578626141501</v>
+      </c>
+      <c r="I12" s="6">
         <v>3.4311873462058302</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="8">
         <v>9.207174203548</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <v>13.852086410344</v>
       </c>
     </row>
@@ -4153,34 +4230,36 @@
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4">
-        <v>100</v>
-      </c>
-      <c r="C13" s="13">
-        <v>99.916943521594675</v>
-      </c>
-      <c r="D13" s="13">
-        <v>-5.3769827822065401E-2</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="B13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="8">
+        <f>100-99.9169435215947</f>
+        <v>8.305647840529673E-2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>-3.0849988071557501E-2</v>
+      </c>
+      <c r="E13" s="6">
         <v>-5.6252378282501701E-2</v>
       </c>
-      <c r="F13" s="13">
-        <v>5.3755086953914802E-2</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="F13" s="8">
+        <v>6.6919394045539093E-2</v>
+      </c>
+      <c r="G13" s="6">
         <v>0.81336207100962699</v>
       </c>
-      <c r="H13" s="13">
-        <v>-0.16486866077083201</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="H13" s="8">
+        <v>-8.5732921612546004E-2</v>
+      </c>
+      <c r="I13" s="6">
         <v>-1.8743679127167201</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="8">
         <v>9.8690164709129904E-2</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>2.32117185062239</v>
       </c>
     </row>
@@ -4188,34 +4267,36 @@
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="4">
-        <v>100</v>
-      </c>
-      <c r="C14" s="13">
-        <v>99.916943521594675</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0.122428222001012</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="B14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
+        <f>100-99.9169435215947</f>
+        <v>8.305647840529673E-2</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.21114572808933599</v>
+      </c>
+      <c r="E14" s="6">
         <v>0.112546019620249</v>
       </c>
-      <c r="F14" s="13">
-        <v>0.117864659874859</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="F14" s="8">
+        <v>0.24762630145356901</v>
+      </c>
+      <c r="G14" s="6">
         <v>1.4805644648609</v>
       </c>
-      <c r="H14" s="13">
-        <v>-6.4530387131475006E-2</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="H14" s="8">
+        <v>6.5100949645069198E-2</v>
+      </c>
+      <c r="I14" s="6">
         <v>-3.7410933198239902</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="8">
         <v>0.714273129837253</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>3.569820145584</v>
       </c>
     </row>
@@ -4223,34 +4304,36 @@
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="4">
-        <v>100</v>
-      </c>
-      <c r="C15" s="13">
-        <v>99.916943521594675</v>
-      </c>
-      <c r="D15" s="13">
-        <v>-0.108699397200593</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="B15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="8">
+        <f>100-99.9169435215947</f>
+        <v>8.305647840529673E-2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>-0.102375733413753</v>
+      </c>
+      <c r="E15" s="6">
         <v>-0.109489477492712</v>
       </c>
-      <c r="F15" s="13">
-        <v>7.1784430506682498E-2</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="F15" s="8">
+        <v>4.05998150420512E-2</v>
+      </c>
+      <c r="G15" s="6">
         <v>1.00878561980918</v>
       </c>
-      <c r="H15" s="13">
-        <v>-0.25811113139321601</v>
-      </c>
-      <c r="I15" s="7">
+      <c r="H15" s="8">
+        <v>-0.15730144557211501</v>
+      </c>
+      <c r="I15" s="6">
         <v>-3.0159101257679999</v>
       </c>
-      <c r="J15" s="13">
-        <v>2.8352088003349998E-2</v>
-      </c>
-      <c r="K15" s="7">
+      <c r="J15" s="8">
+        <v>-6.2779255581724605E-2</v>
+      </c>
+      <c r="K15" s="6">
         <v>2.3851306676844701</v>
       </c>
     </row>
